--- a/paper_status.xlsx
+++ b/paper_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshul\Desktop\risk_econ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8095F1E-BA3C-4A29-9ADD-2C88BB1EB1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684FC5CA-5D9E-49F3-9FA6-0B831824462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>folder_name</t>
   </si>
@@ -42,7 +42,19 @@
     <t>description</t>
   </si>
   <si>
-    <t>Under Review</t>
+    <t>Proposing the use of persistence entropy as a supplementary method of dataset drift detection.</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Overview of the applications of TDA in economics.</t>
+  </si>
+  <si>
+    <t>tda_in_economics</t>
+  </si>
+  <si>
+    <t>Rejected from J of Economic Analysis, though they advised me to submit with Journal of Information Economics, and they think it should be published there. They said they can help facilitate a smooth transition. I asked them to please do so on 7/3/2024. Rejected from Physica A Statistical Mechanics and Its Applications [2/12]; Intl J of Systematic Innovation [12/19/23]; Mathematical Social Sciences; Studies in Nonlinear Dynamics &amp; Econometrics; Computational Economics.</t>
   </si>
   <si>
     <r>
@@ -67,23 +79,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">on 7/3/2024. </t>
+      <t xml:space="preserve">on 7/3/2024. Desk rejected for not being a good fit for the journal. Sent to S Rudkin on 7/7/2024 to see if he has comments and/or would like to co-author. </t>
     </r>
-  </si>
-  <si>
-    <t>Proposing the use of persistence entropy as a supplementary method of dataset drift detection.</t>
-  </si>
-  <si>
-    <t>Waiting</t>
-  </si>
-  <si>
-    <t>Overview of the applications of TDA in economics.</t>
-  </si>
-  <si>
-    <t>tda_in_economics</t>
-  </si>
-  <si>
-    <t>Rejected from J of Economic Analysis, though they advised me to submit with Journal of Information Economics, and they think it should be published there. They said they can help facilitate a smooth transition. I asked them to please do so on 7/3/2024. Rejected from Physica A Statistical Mechanics and Its Applications [2/12]; Intl J of Systematic Innovation [12/19/23]; Mathematical Social Sciences; Studies in Nonlinear Dynamics &amp; Econometrics; Computational Economics.</t>
   </si>
 </sst>
 </file>
@@ -115,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,13 +138,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,7 +434,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,32 +459,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/paper_status.xlsx
+++ b/paper_status.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshul\Desktop\risk_econ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684FC5CA-5D9E-49F3-9FA6-0B831824462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143773A6-AD1E-47EC-9569-BE3AD406D449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="comments" localSheetId="0">Sheet1!$C$192</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,7 +82,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">on 7/3/2024. Desk rejected for not being a good fit for the journal. Sent to S Rudkin on 7/7/2024 to see if he has comments and/or would like to co-author. </t>
+      <t>on 7/3/2024. Desk rejected for not being a good fit for the journal. Sent to S Rudkin on 7/7/2024 to see if he has comments and/or would like to co-author. Shared code 7/8. Waiting comments.</t>
     </r>
   </si>
 </sst>
@@ -434,7 +437,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -489,5 +492,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/paper_status.xlsx
+++ b/paper_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshul\Desktop\risk_econ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143773A6-AD1E-47EC-9569-BE3AD406D449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C88A57-0AEA-4298-8DCD-23F03CCBD08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="comments" localSheetId="0">Sheet1!$C$192</definedName>
+    <definedName name="comments" localSheetId="0">Sheet1!$C$191</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>folder_name</t>
   </si>
@@ -49,15 +49,6 @@
   </si>
   <si>
     <t>Waiting</t>
-  </si>
-  <si>
-    <t>Overview of the applications of TDA in economics.</t>
-  </si>
-  <si>
-    <t>tda_in_economics</t>
-  </si>
-  <si>
-    <t>Rejected from J of Economic Analysis, though they advised me to submit with Journal of Information Economics, and they think it should be published there. They said they can help facilitate a smooth transition. I asked them to please do so on 7/3/2024. Rejected from Physica A Statistical Mechanics and Its Applications [2/12]; Intl J of Systematic Innovation [12/19/23]; Mathematical Social Sciences; Studies in Nonlinear Dynamics &amp; Econometrics; Computational Economics.</t>
   </si>
   <si>
     <r>
@@ -434,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,21 +464,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/paper_status.xlsx
+++ b/paper_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshul\Desktop\risk_econ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C88A57-0AEA-4298-8DCD-23F03CCBD08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476942CD-1C7B-4BD4-9173-29F6598D82CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>Proposing the use of persistence entropy as a supplementary method of dataset drift detection.</t>
   </si>
   <si>
-    <t>Waiting</t>
+    <t>Open</t>
   </si>
   <si>
     <r>
@@ -73,7 +73,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>on 7/3/2024. Desk rejected for not being a good fit for the journal. Sent to S Rudkin on 7/7/2024 to see if he has comments and/or would like to co-author. Shared code 7/8. Waiting comments.</t>
+      <t xml:space="preserve">on 7/3/2024. Desk rejected for not being a good fit for the journal. Sent to S Rudkin on 7/7/2024 to see if he has comments and/or would like to co-author. Shared code 7/8. Waiting comments. No reply from SR. Rewrite and resubmit. </t>
     </r>
   </si>
 </sst>
@@ -106,18 +106,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,8 +135,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -428,7 +422,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
